--- a/NOSTR Bots and Spammers.xlsx
+++ b/NOSTR Bots and Spammers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\WebstormProjects\nostr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F609081A-E2CB-41A5-B7DD-75D5C50C9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F5248-4C7D-4951-90A3-364BE97242D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99202A29-1A87-4C51-923E-80E95F05010B}"/>
   </bookViews>
@@ -33,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>npub1curnt7jtq8mhl9fcswnwvuvc9ccm6lvsdv4kzydx75v92kldrvdqh7sq09</t>
+  </si>
+  <si>
+    <t>npub136ljffk35zaknaauukrrlmpgdle6p6a0mlcw383w6gvas0epjguqc8mumr</t>
+  </si>
+  <si>
+    <t>npub1aqg047s738xlsrxwmrsp8yuwsl3pk6vmyny9wpfhh6f2a3939svqfrzlk2</t>
+  </si>
+  <si>
+    <t>npub1x4zn6tjf5q5zcnwkjnj6xe9l99sq4x65g0j8zt8us6syj5696y9sgrwmme</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +399,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDED770F-15ED-4036-9427-FA321860E7C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NOSTR Bots and Spammers.xlsx
+++ b/NOSTR Bots and Spammers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\WebstormProjects\nostr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F5248-4C7D-4951-90A3-364BE97242D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34FCEF-82AD-43D3-BDB1-36B0AD8DA324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99202A29-1A87-4C51-923E-80E95F05010B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>npub1curnt7jtq8mhl9fcswnwvuvc9ccm6lvsdv4kzydx75v92kldrvdqh7sq09</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>npub1x4zn6tjf5q5zcnwkjnj6xe9l99sq4x65g0j8zt8us6syj5696y9sgrwmme</t>
+  </si>
+  <si>
+    <t>npub1hlgjrgmhwd257thnarjjfc8rxlemlpfwk4wdjejw9jgp298sv0nsq3mr2u</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDED770F-15ED-4036-9427-FA321860E7C0}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -430,6 +433,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
